--- a/Modelo - Grupo A.xlsx
+++ b/Modelo - Grupo A.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Material - Rodrigo\TCC\Programa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Material - Rodrigo\TCC\Programa\Perfil-de-consumo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67246813-724D-4663-AA0A-4FEEB1853C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A984BF12-564D-4ACD-B1F5-56994D776BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11055" yWindow="2310" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipamentos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>Forno 1</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>Fim</t>
+  </si>
+  <si>
+    <t>Fator de Potência</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Tipo - FP</t>
+  </si>
+  <si>
+    <t>Indutivo</t>
   </si>
 </sst>
 </file>
@@ -162,13 +174,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0">
-  <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G13" totalsRowShown="0">
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Equipamentos"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Potência"/>
+    <tableColumn id="5" xr3:uid="{21D26ABC-C275-4252-B000-2228CC2B4E15}" name="Fator de Potência"/>
+    <tableColumn id="7" xr3:uid="{AF47F233-A11A-4AE2-8658-3E00C3C82AD5}" name="Tipo - FP"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Início"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fim"/>
+    <tableColumn id="6" xr3:uid="{ACB0FC60-1553-4EED-8BF0-D2EB7957DC6F}" name="Quantidade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -461,17 +476,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="J8:K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.7109375" customWidth="1"/>
+    <col min="2" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -479,178 +497,295 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>22</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
